--- a/base/wbs-ok.xlsx
+++ b/base/wbs-ok.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$62</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -112,333 +115,336 @@
     <t>17SD002353006</t>
   </si>
   <si>
+    <t>17SD006067002</t>
+  </si>
+  <si>
+    <t>17SD006067003</t>
+  </si>
+  <si>
+    <t>17SD006067005</t>
+  </si>
+  <si>
+    <t>17SD006067006</t>
+  </si>
+  <si>
+    <t>17SD006067008</t>
+  </si>
+  <si>
+    <t>17SD006067009</t>
+  </si>
+  <si>
+    <t>17SD018303001</t>
+  </si>
+  <si>
+    <t>17SD018303002</t>
+  </si>
+  <si>
+    <t>17SD018303003</t>
+  </si>
+  <si>
+    <t>17SD018303004</t>
+  </si>
+  <si>
+    <t>17SD018303005</t>
+  </si>
+  <si>
+    <t>17SD018305001</t>
+  </si>
+  <si>
+    <t>17SD018305002</t>
+  </si>
+  <si>
+    <t>17SD018305003</t>
+  </si>
+  <si>
+    <t>17SD018305004</t>
+  </si>
+  <si>
+    <t>17SD018309001</t>
+  </si>
+  <si>
+    <t>17SD018309002</t>
+  </si>
+  <si>
+    <t>17SD018309003</t>
+  </si>
+  <si>
+    <t>17SD018310001</t>
+  </si>
+  <si>
+    <t>17SD018310002</t>
+  </si>
+  <si>
+    <t>17SD018311001</t>
+  </si>
+  <si>
+    <t>17SD018311002</t>
+  </si>
+  <si>
+    <t>17SD018311003</t>
+  </si>
+  <si>
+    <t>17SD018314001</t>
+  </si>
+  <si>
+    <t>17SD018314002</t>
+  </si>
+  <si>
+    <t>17SD018314003</t>
+  </si>
+  <si>
+    <t>17SD018314004</t>
+  </si>
+  <si>
+    <t>17SD018315001</t>
+  </si>
+  <si>
+    <t>17SD018315002</t>
+  </si>
+  <si>
+    <t>17SD018316001</t>
+  </si>
+  <si>
+    <t>17SD018317001</t>
+  </si>
+  <si>
+    <t>17SD018317002</t>
+  </si>
+  <si>
+    <t>17SD018320001</t>
+  </si>
+  <si>
+    <t>17SD018320002</t>
+  </si>
+  <si>
+    <t>17SD018320003</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第二批主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第二批主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第二批主设备项目04批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第二批主设备项目06批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第三批主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第三批主设备项目05批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第三批主设备项目06批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）无线网华为网管工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第四批主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第四批主设备项目05批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第四批主设备项目06批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第五批主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第五批主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第五批主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第五批主设备项目04批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第十批主设备项目04批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第七批主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第七批主设备项目04批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第七批主设备项目05批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第七批主设备项目06批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第七批主设备项目07批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第八批主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第九批主设备项目05批工程</t>
+  </si>
+  <si>
+    <t>济南电信LTE五期（2017年）第九批主设备项目06批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第一批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第二批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第三批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第四批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第五批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第六批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第八批工程</t>
+  </si>
+  <si>
+    <t>济南电信2017年CDMA无线网第九批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目04批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目05批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目04批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第三批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第三批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第三批基站主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第四批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第四批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第五批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第五批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目04批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第七批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第七批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南华为网管项目</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第一批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第一批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目01批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目02批工程</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目03批工程</t>
+  </si>
+  <si>
+    <t>工程已关闭</t>
+  </si>
+  <si>
+    <t>决算审计中</t>
+  </si>
+  <si>
+    <t>决算审批中</t>
+  </si>
+  <si>
+    <t>初验已批复</t>
+  </si>
+  <si>
+    <t>一次性验收/终验已批复</t>
+  </si>
+  <si>
+    <t>工程已开工</t>
+  </si>
+  <si>
+    <t>工程已完工</t>
+  </si>
+  <si>
+    <t>一阶段设计已批复</t>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南800M无线网第五批基站主设备项目诺基亚网管工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>17SD006067001</t>
-  </si>
-  <si>
-    <t>17SD006067002</t>
-  </si>
-  <si>
-    <t>17SD006067003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17SD006067004</t>
-  </si>
-  <si>
-    <t>17SD006067005</t>
-  </si>
-  <si>
-    <t>17SD006067006</t>
-  </si>
-  <si>
-    <t>17SD006067008</t>
-  </si>
-  <si>
-    <t>17SD006067009</t>
-  </si>
-  <si>
-    <t>17SD018303001</t>
-  </si>
-  <si>
-    <t>17SD018303002</t>
-  </si>
-  <si>
-    <t>17SD018303003</t>
-  </si>
-  <si>
-    <t>17SD018303004</t>
-  </si>
-  <si>
-    <t>17SD018303005</t>
-  </si>
-  <si>
-    <t>17SD018305001</t>
-  </si>
-  <si>
-    <t>17SD018305002</t>
-  </si>
-  <si>
-    <t>17SD018305003</t>
-  </si>
-  <si>
-    <t>17SD018305004</t>
-  </si>
-  <si>
-    <t>17SD018309001</t>
-  </si>
-  <si>
-    <t>17SD018309002</t>
-  </si>
-  <si>
-    <t>17SD018309003</t>
-  </si>
-  <si>
-    <t>17SD018310001</t>
-  </si>
-  <si>
-    <t>17SD018310002</t>
-  </si>
-  <si>
-    <t>17SD018311001</t>
-  </si>
-  <si>
-    <t>17SD018311002</t>
-  </si>
-  <si>
-    <t>17SD018311003</t>
-  </si>
-  <si>
-    <t>17SD018314001</t>
-  </si>
-  <si>
-    <t>17SD018314002</t>
-  </si>
-  <si>
-    <t>17SD018314003</t>
-  </si>
-  <si>
-    <t>17SD018314004</t>
-  </si>
-  <si>
-    <t>17SD018315001</t>
-  </si>
-  <si>
-    <t>17SD018315002</t>
-  </si>
-  <si>
-    <t>17SD018316001</t>
-  </si>
-  <si>
-    <t>17SD018317001</t>
-  </si>
-  <si>
-    <t>17SD018317002</t>
-  </si>
-  <si>
-    <t>17SD018320001</t>
-  </si>
-  <si>
-    <t>17SD018320002</t>
-  </si>
-  <si>
-    <t>17SD018320003</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第二批主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第二批主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第二批主设备项目04批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第二批主设备项目06批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第三批主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第三批主设备项目05批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第三批主设备项目06批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）无线网华为网管工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第四批主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第四批主设备项目05批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第四批主设备项目06批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第五批主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第五批主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第五批主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第五批主设备项目04批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第十批主设备项目04批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第七批主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第七批主设备项目04批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第七批主设备项目05批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第七批主设备项目06批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第七批主设备项目07批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第八批主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第九批主设备项目05批工程</t>
-  </si>
-  <si>
-    <t>济南电信LTE五期（2017年）第九批主设备项目06批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第一批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第二批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第三批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第四批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第五批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第六批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第八批工程</t>
-  </si>
-  <si>
-    <t>济南电信2017年CDMA无线网第九批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目04批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第一批基站主设备项目05批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第二批基站主设备项目04批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第三批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第三批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第三批基站主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第四批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第四批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第五批基站主设备项目诺基亚网管工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第五批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第五批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第六批基站主设备项目04批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第七批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南800M无线网第七批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南华为网管项目</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第一批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第一批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目01批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目03批工程</t>
-  </si>
-  <si>
-    <t>工程已关闭</t>
-  </si>
-  <si>
-    <t>决算审计中</t>
-  </si>
-  <si>
-    <t>决算审批中</t>
-  </si>
-  <si>
-    <t>初验已批复</t>
-  </si>
-  <si>
-    <t>一次性验收/终验已批复</t>
-  </si>
-  <si>
-    <t>工程已开工</t>
-  </si>
-  <si>
-    <t>工程已完工</t>
-  </si>
-  <si>
-    <t>一阶段设计已批复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,20 +452,33 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -482,26 +501,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,6 +626,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -609,6 +661,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,18 +837,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -807,7 +871,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -817,12 +881,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>20170316</v>
@@ -837,18 +901,18 @@
         <v>20171206</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>870400</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>20170407</v>
@@ -863,18 +927,18 @@
         <v>20180413</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3">
         <v>1070400</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>20170424</v>
@@ -889,18 +953,18 @@
         <v>20180413</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4">
         <v>1070400</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>20170424</v>
@@ -915,18 +979,18 @@
         <v>20180413</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H5">
         <v>1418700</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>20170516</v>
@@ -941,18 +1005,18 @@
         <v>20180412</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H6">
         <v>952700</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>20170516</v>
@@ -967,18 +1031,18 @@
         <v>20180412</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H7">
         <v>1121600</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>20170516</v>
@@ -993,18 +1057,18 @@
         <v>20180412</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H8">
         <v>1035300</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>20170413</v>
@@ -1019,18 +1083,18 @@
         <v>20171206</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>143800</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>20170324</v>
@@ -1045,18 +1109,18 @@
         <v>20180412</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H10">
         <v>875800</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>20170329</v>
@@ -1071,18 +1135,18 @@
         <v>20180412</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11">
         <v>1138300</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>20170329</v>
@@ -1097,18 +1161,18 @@
         <v>20180412</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H12">
         <v>1138300</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>20170322</v>
@@ -1123,18 +1187,18 @@
         <v>20180412</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H13">
         <v>909200</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>20170323</v>
@@ -1149,18 +1213,18 @@
         <v>20180412</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H14">
         <v>1059200</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>20170401</v>
@@ -1175,18 +1239,18 @@
         <v>20180412</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H15">
         <v>1091100</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>20170401</v>
@@ -1201,18 +1265,18 @@
         <v>20180412</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H16">
         <v>1553500</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>20170401</v>
@@ -1227,18 +1291,18 @@
         <v>20180412</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H17">
         <v>1245400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18">
         <v>20170329</v>
@@ -1253,18 +1317,18 @@
         <v>20180412</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H18">
         <v>919600</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <v>20170330</v>
@@ -1279,18 +1343,18 @@
         <v>20180412</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19">
         <v>919600</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>20170330</v>
@@ -1305,18 +1369,18 @@
         <v>20180412</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H20">
         <v>919600</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>20170401</v>
@@ -1331,18 +1395,18 @@
         <v>20180412</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H21">
         <v>1011600</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <v>20170401</v>
@@ -1357,18 +1421,18 @@
         <v>20180412</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H22">
         <v>1425300</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23">
         <v>20170323</v>
@@ -1383,18 +1447,18 @@
         <v>20171206</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>705000</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>20170329</v>
@@ -1409,18 +1473,18 @@
         <v>20180412</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H24">
         <v>1606300</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25">
         <v>20170329</v>
@@ -1435,18 +1499,18 @@
         <v>20180412</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H25">
         <v>1716300</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <v>20170524</v>
@@ -1458,18 +1522,18 @@
         <v>20180305</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H26">
         <v>450000</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>20170524</v>
@@ -1484,18 +1548,18 @@
         <v>20180420</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H27">
         <v>412082</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>20170526</v>
@@ -1510,18 +1574,18 @@
         <v>20180103</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H28">
         <v>489335</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>20170524</v>
@@ -1533,18 +1597,18 @@
         <v>20180305</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H29">
         <v>541373</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>20170524</v>
@@ -1559,18 +1623,18 @@
         <v>20180420</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H30">
         <v>452960</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>20170524</v>
@@ -1585,18 +1649,18 @@
         <v>20180420</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H31">
         <v>413146</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>20170524</v>
@@ -1611,18 +1675,18 @@
         <v>20180420</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H32">
         <v>434406</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>20170524</v>
@@ -1637,52 +1701,52 @@
         <v>20180420</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H33">
         <v>465049</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>20180104</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H34">
         <v>1319500</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>20180104</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H35">
         <v>1304100</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36">
         <v>20180104</v>
@@ -1694,52 +1758,58 @@
         <v>20180416</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H36">
         <v>1313900</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>20180104</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H37">
         <v>1332700</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38">
-        <v>20180104</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="5">
+        <v>20180104</v>
+      </c>
+      <c r="D38" s="7">
+        <v>20180420</v>
+      </c>
+      <c r="E38" s="7">
+        <v>20180509</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H38">
         <v>1511300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>20180104</v>
@@ -1751,18 +1821,18 @@
         <v>20180416</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H39">
         <v>1296500</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40">
         <v>20180104</v>
@@ -1774,52 +1844,58 @@
         <v>20180405</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H40">
         <v>1249000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41">
-        <v>20180104</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="5">
+        <v>20180104</v>
+      </c>
+      <c r="D41" s="7">
+        <v>20180420</v>
+      </c>
+      <c r="E41" s="7">
+        <v>20180509</v>
       </c>
       <c r="G41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H41">
         <v>1287400</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42">
         <v>20180104</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H42">
         <v>1184700</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>20180104</v>
@@ -1831,18 +1907,18 @@
         <v>20180405</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H43">
         <v>1300400</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44">
         <v>20180104</v>
@@ -1851,18 +1927,18 @@
         <v>20180205</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H44">
         <v>1133700</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45">
         <v>20180104</v>
@@ -1871,18 +1947,18 @@
         <v>20180205</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H45">
         <v>1405800</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46">
         <v>20180104</v>
@@ -1894,18 +1970,18 @@
         <v>20180405</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H46">
         <v>1398200</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47">
         <v>20180104</v>
@@ -1917,18 +1993,18 @@
         <v>20180416</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H47">
         <v>1499500</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C48">
         <v>20180104</v>
@@ -1940,18 +2016,18 @@
         <v>20180416</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H48">
         <v>145000</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C49">
         <v>20180104</v>
@@ -1963,18 +2039,18 @@
         <v>20180405</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H49">
         <v>786500</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50">
         <v>20180104</v>
@@ -1986,18 +2062,18 @@
         <v>20180416</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H50">
         <v>829600</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <v>20180104</v>
@@ -2009,18 +2085,18 @@
         <v>20180405</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H51">
         <v>749800</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C52">
         <v>20180104</v>
@@ -2032,18 +2108,18 @@
         <v>20180405</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H52">
         <v>818800</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C53">
         <v>20180104</v>
@@ -2055,18 +2131,18 @@
         <v>20180416</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H53">
         <v>807200</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C54">
         <v>20180104</v>
@@ -2078,18 +2154,18 @@
         <v>20180416</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H54">
         <v>675900</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C55">
         <v>20180104</v>
@@ -2101,18 +2177,18 @@
         <v>20180405</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H55">
         <v>560600</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C56">
         <v>20180104</v>
@@ -2124,18 +2200,18 @@
         <v>20180416</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H56">
         <v>536400</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57">
         <v>20180104</v>
@@ -2147,95 +2223,97 @@
         <v>20180405</v>
       </c>
       <c r="G57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H57">
         <v>105000</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C58">
         <v>20180104</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H58">
         <v>1283800</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>20180104</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H59">
         <v>1553000</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C60">
         <v>20180104</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H60">
         <v>2000500</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H61">
         <v>970700</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C62">
         <v>20180104</v>
       </c>
       <c r="G62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H62">
         <v>596300</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H62"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/base/wbs-ok.xlsx
+++ b/base/wbs-ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7800"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="15120" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>17SD018310002</t>
   </si>
   <si>
-    <t>17SD018311001</t>
-  </si>
-  <si>
     <t>17SD018311002</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>17SD018315002</t>
   </si>
   <si>
-    <t>17SD018316001</t>
-  </si>
-  <si>
     <t>17SD018317001</t>
   </si>
   <si>
@@ -395,9 +389,6 @@
   </si>
   <si>
     <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目02批工程</t>
-  </si>
-  <si>
-    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目03批工程</t>
   </si>
   <si>
     <t>工程已关闭</t>
@@ -433,6 +424,18 @@
   </si>
   <si>
     <t>17SD006067004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信LTE六期工程济南1.8G/2.1G无线网第二批基站主设备项目03批工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17SD018316001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17SD018311001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -537,6 +540,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -840,14 +844,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
@@ -886,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>20170316</v>
@@ -901,7 +905,7 @@
         <v>20171206</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H2">
         <v>870400</v>
@@ -912,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>20170407</v>
@@ -927,7 +931,7 @@
         <v>20180413</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H3">
         <v>1070400</v>
@@ -938,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>20170424</v>
@@ -953,7 +957,7 @@
         <v>20180413</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H4">
         <v>1070400</v>
@@ -964,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>20170424</v>
@@ -979,7 +983,7 @@
         <v>20180413</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H5">
         <v>1418700</v>
@@ -990,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>20170516</v>
@@ -1005,7 +1009,7 @@
         <v>20180412</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H6">
         <v>952700</v>
@@ -1016,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>20170516</v>
@@ -1031,7 +1035,7 @@
         <v>20180412</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H7">
         <v>1121600</v>
@@ -1042,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>20170516</v>
@@ -1057,7 +1061,7 @@
         <v>20180412</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H8">
         <v>1035300</v>
@@ -1068,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>20170413</v>
@@ -1083,7 +1087,7 @@
         <v>20171206</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H9">
         <v>143800</v>
@@ -1094,7 +1098,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>20170324</v>
@@ -1109,7 +1113,7 @@
         <v>20180412</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H10">
         <v>875800</v>
@@ -1120,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>20170329</v>
@@ -1135,7 +1139,7 @@
         <v>20180412</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H11">
         <v>1138300</v>
@@ -1146,7 +1150,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>20170329</v>
@@ -1161,7 +1165,7 @@
         <v>20180412</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H12">
         <v>1138300</v>
@@ -1172,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>20170322</v>
@@ -1187,7 +1191,7 @@
         <v>20180412</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H13">
         <v>909200</v>
@@ -1198,7 +1202,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>20170323</v>
@@ -1213,7 +1217,7 @@
         <v>20180412</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H14">
         <v>1059200</v>
@@ -1224,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>20170401</v>
@@ -1239,7 +1243,7 @@
         <v>20180412</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H15">
         <v>1091100</v>
@@ -1250,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>20170401</v>
@@ -1265,7 +1269,7 @@
         <v>20180412</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H16">
         <v>1553500</v>
@@ -1276,7 +1280,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>20170401</v>
@@ -1291,7 +1295,7 @@
         <v>20180412</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H17">
         <v>1245400</v>
@@ -1302,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>20170329</v>
@@ -1317,7 +1321,7 @@
         <v>20180412</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18">
         <v>919600</v>
@@ -1328,7 +1332,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>20170330</v>
@@ -1343,7 +1347,7 @@
         <v>20180412</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19">
         <v>919600</v>
@@ -1354,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20">
         <v>20170330</v>
@@ -1369,7 +1373,7 @@
         <v>20180412</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H20">
         <v>919600</v>
@@ -1380,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>20170401</v>
@@ -1395,7 +1399,7 @@
         <v>20180412</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H21">
         <v>1011600</v>
@@ -1406,7 +1410,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>20170401</v>
@@ -1421,7 +1425,7 @@
         <v>20180412</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22">
         <v>1425300</v>
@@ -1432,7 +1436,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>20170323</v>
@@ -1447,7 +1451,7 @@
         <v>20171206</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H23">
         <v>705000</v>
@@ -1458,7 +1462,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>20170329</v>
@@ -1473,7 +1477,7 @@
         <v>20180412</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H24">
         <v>1606300</v>
@@ -1484,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>20170329</v>
@@ -1499,7 +1503,7 @@
         <v>20180412</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H25">
         <v>1716300</v>
@@ -1507,10 +1511,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>20170524</v>
@@ -1522,7 +1526,7 @@
         <v>20180305</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>450000</v>
@@ -1533,7 +1537,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>20170524</v>
@@ -1548,7 +1552,7 @@
         <v>20180420</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H27">
         <v>412082</v>
@@ -1559,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <v>20170526</v>
@@ -1574,7 +1578,7 @@
         <v>20180103</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H28">
         <v>489335</v>
@@ -1582,10 +1586,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>20170524</v>
@@ -1597,7 +1601,7 @@
         <v>20180305</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>541373</v>
@@ -1608,7 +1612,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>20170524</v>
@@ -1623,7 +1627,7 @@
         <v>20180420</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H30">
         <v>452960</v>
@@ -1634,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>20170524</v>
@@ -1649,7 +1653,7 @@
         <v>20180420</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H31">
         <v>413146</v>
@@ -1660,7 +1664,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>20170524</v>
@@ -1675,7 +1679,7 @@
         <v>20180420</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H32">
         <v>434406</v>
@@ -1686,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>20170524</v>
@@ -1701,7 +1705,7 @@
         <v>20180420</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H33">
         <v>465049</v>
@@ -1712,30 +1716,37 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>20180104</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H34">
         <v>1319500</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>20180104</v>
-      </c>
+      <c r="B35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="5">
+        <v>20180104</v>
+      </c>
+      <c r="D35" s="7">
+        <v>20180501</v>
+      </c>
+      <c r="E35" s="7">
+        <v>20180524</v>
+      </c>
+      <c r="F35" s="8"/>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H35">
         <v>1304100</v>
@@ -1746,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>20180104</v>
@@ -1758,35 +1769,42 @@
         <v>20180416</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H36">
         <v>1313900</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37">
-        <v>20180104</v>
-      </c>
-      <c r="G37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37">
+      <c r="B37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7">
+        <v>20180104</v>
+      </c>
+      <c r="D37" s="7">
+        <v>20180501</v>
+      </c>
+      <c r="E37" s="7">
+        <v>20180524</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="8">
         <v>1332700</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5">
         <v>20180104</v>
@@ -1798,7 +1816,7 @@
         <v>20180509</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H38">
         <v>1511300</v>
@@ -1809,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>20180104</v>
@@ -1821,7 +1839,7 @@
         <v>20180416</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H39">
         <v>1296500</v>
@@ -1832,7 +1850,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <v>20180104</v>
@@ -1844,18 +1862,18 @@
         <v>20180405</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H40">
         <v>1249000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="5">
         <v>20180104</v>
@@ -1867,7 +1885,7 @@
         <v>20180509</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H41">
         <v>1287400</v>
@@ -1878,13 +1896,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C42">
         <v>20180104</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H42">
         <v>1184700</v>
@@ -1895,7 +1913,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <v>20180104</v>
@@ -1907,27 +1925,30 @@
         <v>20180405</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H43">
         <v>1300400</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44">
-        <v>20180104</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="5">
+        <v>20180104</v>
+      </c>
+      <c r="D44" s="7">
         <v>20180205</v>
       </c>
+      <c r="E44" s="7">
+        <v>20180524</v>
+      </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H44">
         <v>1133700</v>
@@ -1938,7 +1959,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>20180104</v>
@@ -1947,7 +1968,7 @@
         <v>20180205</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H45">
         <v>1405800</v>
@@ -1958,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <v>20180104</v>
@@ -1970,7 +1991,7 @@
         <v>20180405</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H46">
         <v>1398200</v>
@@ -1981,7 +2002,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47">
         <v>20180104</v>
@@ -1993,7 +2014,7 @@
         <v>20180416</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H47">
         <v>1499500</v>
@@ -2001,10 +2022,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C48">
         <v>20180104</v>
@@ -2016,7 +2037,7 @@
         <v>20180416</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H48">
         <v>145000</v>
@@ -2024,10 +2045,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49">
         <v>20180104</v>
@@ -2039,7 +2060,7 @@
         <v>20180405</v>
       </c>
       <c r="G49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H49">
         <v>786500</v>
@@ -2047,10 +2068,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50">
         <v>20180104</v>
@@ -2062,7 +2083,7 @@
         <v>20180416</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H50">
         <v>829600</v>
@@ -2070,10 +2091,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51">
         <v>20180104</v>
@@ -2085,7 +2106,7 @@
         <v>20180405</v>
       </c>
       <c r="G51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H51">
         <v>749800</v>
@@ -2093,10 +2114,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52">
         <v>20180104</v>
@@ -2108,7 +2129,7 @@
         <v>20180405</v>
       </c>
       <c r="G52" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H52">
         <v>818800</v>
@@ -2116,10 +2137,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53">
         <v>20180104</v>
@@ -2131,7 +2152,7 @@
         <v>20180416</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H53">
         <v>807200</v>
@@ -2139,10 +2160,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54">
         <v>20180104</v>
@@ -2154,7 +2175,7 @@
         <v>20180416</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H54">
         <v>675900</v>
@@ -2162,10 +2183,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55">
         <v>20180104</v>
@@ -2177,7 +2198,7 @@
         <v>20180405</v>
       </c>
       <c r="G55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H55">
         <v>560600</v>
@@ -2185,10 +2206,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56">
         <v>20180104</v>
@@ -2200,7 +2221,7 @@
         <v>20180416</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H56">
         <v>536400</v>
@@ -2208,10 +2229,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57">
         <v>20180104</v>
@@ -2223,7 +2244,7 @@
         <v>20180405</v>
       </c>
       <c r="G57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H57">
         <v>105000</v>
@@ -2231,16 +2252,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C58">
         <v>20180104</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H58">
         <v>1283800</v>
@@ -2248,16 +2269,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59">
         <v>20180104</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H59">
         <v>1553000</v>
@@ -2265,16 +2286,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60">
         <v>20180104</v>
       </c>
       <c r="G60" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H60">
         <v>2000500</v>
@@ -2282,30 +2303,36 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H61">
         <v>970700</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62">
-        <v>20180104</v>
+      <c r="A62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="7">
+        <v>20180104</v>
+      </c>
+      <c r="D62" s="7">
+        <v>20180501</v>
+      </c>
+      <c r="E62" s="7">
+        <v>20180524</v>
       </c>
       <c r="G62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H62">
         <v>596300</v>
